--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004310666666666667</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N2">
-        <v>0.012932</v>
+        <v>0.1831</v>
       </c>
       <c r="O2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P2">
-        <v>0.0509191994361561</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q2">
-        <v>0.0004031953328888889</v>
+        <v>0.01054965235555556</v>
       </c>
       <c r="R2">
-        <v>0.003628757996</v>
+        <v>0.0949468712</v>
       </c>
       <c r="S2">
-        <v>0.002400128895233603</v>
+        <v>0.01760140986252505</v>
       </c>
       <c r="T2">
-        <v>0.002400128895233603</v>
+        <v>0.01760140986252505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,51 +596,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06103333333333334</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N3">
-        <v>0.1831</v>
+        <v>0.69124</v>
       </c>
       <c r="O3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P3">
-        <v>0.7209484547448332</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q3">
-        <v>0.005708712144444445</v>
+        <v>0.03982709827555556</v>
       </c>
       <c r="R3">
-        <v>0.05137840930000001</v>
+        <v>0.35844388448</v>
       </c>
       <c r="S3">
-        <v>0.03398264775110367</v>
+        <v>0.06644892710743755</v>
       </c>
       <c r="T3">
-        <v>0.03398264775110367</v>
+        <v>0.06644892710743755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H4">
+        <v>4.103153</v>
+      </c>
+      <c r="I4">
+        <v>0.6650661694281633</v>
+      </c>
+      <c r="J4">
+        <v>0.6650661694281633</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.09353433333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.280603</v>
-      </c>
-      <c r="I4">
-        <v>0.04713602966682441</v>
-      </c>
-      <c r="J4">
-        <v>0.04713602966682441</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.019313</v>
+        <v>0.06103333333333334</v>
       </c>
       <c r="N4">
-        <v>0.057939</v>
+        <v>0.1831</v>
       </c>
       <c r="O4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P4">
-        <v>0.2281323458190108</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q4">
-        <v>0.001806428579666667</v>
+        <v>0.08347636825555556</v>
       </c>
       <c r="R4">
-        <v>0.016257857217</v>
+        <v>0.7512873143000001</v>
       </c>
       <c r="S4">
-        <v>0.01075325302048714</v>
+        <v>0.1392748994925277</v>
       </c>
       <c r="T4">
-        <v>0.01075325302048714</v>
+        <v>0.1392748994925277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>4.103153</v>
       </c>
       <c r="I5">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J5">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004310666666666667</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N5">
-        <v>0.012932</v>
+        <v>0.69124</v>
       </c>
       <c r="O5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P5">
-        <v>0.0509191994361561</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q5">
-        <v>0.005895774955111111</v>
+        <v>0.3151403866355555</v>
       </c>
       <c r="R5">
-        <v>0.053061974596</v>
+        <v>2.83626347972</v>
       </c>
       <c r="S5">
-        <v>0.03509618955201634</v>
+        <v>0.5257912699356355</v>
       </c>
       <c r="T5">
-        <v>0.03509618955201634</v>
+        <v>0.5257912699356355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.367717666666667</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H6">
-        <v>4.103153</v>
+        <v>1.547836</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.1831</v>
       </c>
       <c r="O6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="P6">
-        <v>0.7209484547448332</v>
+        <v>0.2094151016766933</v>
       </c>
       <c r="Q6">
-        <v>0.08347636825555556</v>
+        <v>0.03148986351111111</v>
       </c>
       <c r="R6">
-        <v>0.7512873143000001</v>
+        <v>0.2834087716</v>
       </c>
       <c r="S6">
-        <v>0.496915582042545</v>
+        <v>0.05253879232164049</v>
       </c>
       <c r="T6">
-        <v>0.496915582042545</v>
+        <v>0.05253879232164049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.367717666666667</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H7">
-        <v>4.103153</v>
+        <v>1.547836</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.019313</v>
+        <v>0.2304133333333333</v>
       </c>
       <c r="N7">
-        <v>0.057939</v>
+        <v>0.69124</v>
       </c>
       <c r="O7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="P7">
-        <v>0.2281323458190108</v>
+        <v>0.7905848983233067</v>
       </c>
       <c r="Q7">
-        <v>0.02641473129633333</v>
+        <v>0.1188806840711111</v>
       </c>
       <c r="R7">
-        <v>0.237732581667</v>
+        <v>1.06992615664</v>
       </c>
       <c r="S7">
-        <v>0.1572408077988149</v>
+        <v>0.1983447012802336</v>
       </c>
       <c r="T7">
-        <v>0.1572408077988149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.523097</v>
-      </c>
-      <c r="H8">
-        <v>1.569291</v>
-      </c>
-      <c r="I8">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J8">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.004310666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.012932</v>
-      </c>
-      <c r="O8">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="P8">
-        <v>0.0509191994361561</v>
-      </c>
-      <c r="Q8">
-        <v>0.002254896801333334</v>
-      </c>
-      <c r="R8">
-        <v>0.020294071212</v>
-      </c>
-      <c r="S8">
-        <v>0.01342288098890616</v>
-      </c>
-      <c r="T8">
-        <v>0.01342288098890616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.523097</v>
-      </c>
-      <c r="H9">
-        <v>1.569291</v>
-      </c>
-      <c r="I9">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J9">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06103333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.1831</v>
-      </c>
-      <c r="O9">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="P9">
-        <v>0.7209484547448332</v>
-      </c>
-      <c r="Q9">
-        <v>0.03192635356666667</v>
-      </c>
-      <c r="R9">
-        <v>0.2873371821</v>
-      </c>
-      <c r="S9">
-        <v>0.1900502249511845</v>
-      </c>
-      <c r="T9">
-        <v>0.1900502249511845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.523097</v>
-      </c>
-      <c r="H10">
-        <v>1.569291</v>
-      </c>
-      <c r="I10">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J10">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.019313</v>
-      </c>
-      <c r="N10">
-        <v>0.057939</v>
-      </c>
-      <c r="O10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="P10">
-        <v>0.2281323458190108</v>
-      </c>
-      <c r="Q10">
-        <v>0.010102572361</v>
-      </c>
-      <c r="R10">
-        <v>0.09092315124899999</v>
-      </c>
-      <c r="S10">
-        <v>0.06013828499970878</v>
-      </c>
-      <c r="T10">
-        <v>0.06013828499970877</v>
+        <v>0.1983447012802336</v>
       </c>
     </row>
   </sheetData>
